--- a/data/pca/factorExposure/factorExposure_2011-10-25.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-10-25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,21 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +720,54 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.0111690694209189</v>
+        <v>-0.01335007850220443</v>
       </c>
       <c r="C2">
-        <v>-0.03382336384257859</v>
+        <v>0.004632491096629695</v>
       </c>
       <c r="D2">
-        <v>0.01581457879685628</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.03350342214582435</v>
+      </c>
+      <c r="E2">
+        <v>0.009006145574568582</v>
+      </c>
+      <c r="F2">
+        <v>0.04075699425477853</v>
+      </c>
+      <c r="G2">
+        <v>0.0118482126975463</v>
+      </c>
+      <c r="H2">
+        <v>-0.01613174114991403</v>
+      </c>
+      <c r="I2">
+        <v>0.001102704596029587</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +778,54 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.07737817142910468</v>
+        <v>-0.09044812916392043</v>
       </c>
       <c r="C4">
-        <v>-0.05306454554708431</v>
+        <v>-0.04400800652812809</v>
       </c>
       <c r="D4">
-        <v>0.08114012814472321</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.071892062594736</v>
+      </c>
+      <c r="E4">
+        <v>0.005385280674157033</v>
+      </c>
+      <c r="F4">
+        <v>0.0442596646419567</v>
+      </c>
+      <c r="G4">
+        <v>-0.03063101288732576</v>
+      </c>
+      <c r="H4">
+        <v>0.03688144484228706</v>
+      </c>
+      <c r="I4">
+        <v>-0.06937441055676688</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +836,344 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>-0.1146217942387566</v>
+        <v>-0.1256615265032176</v>
       </c>
       <c r="C6">
-        <v>-0.04876398070946576</v>
+        <v>0.008995087576342167</v>
       </c>
       <c r="D6">
-        <v>0.004962982065582908</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.03354158970938597</v>
+      </c>
+      <c r="E6">
+        <v>-0.02445372947283224</v>
+      </c>
+      <c r="F6">
+        <v>0.0475484643917834</v>
+      </c>
+      <c r="G6">
+        <v>-0.04124305265823951</v>
+      </c>
+      <c r="H6">
+        <v>-0.1880931248938448</v>
+      </c>
+      <c r="I6">
+        <v>-0.04886727295127372</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.06029419242917499</v>
+        <v>-0.06589386374230702</v>
       </c>
       <c r="C7">
-        <v>-0.04346034556111174</v>
+        <v>-0.03549706436112437</v>
       </c>
       <c r="D7">
-        <v>0.03450091117195812</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05277742652840652</v>
+      </c>
+      <c r="E7">
+        <v>0.01687404575299271</v>
+      </c>
+      <c r="F7">
+        <v>0.04985526215769906</v>
+      </c>
+      <c r="G7">
+        <v>0.01467896038426669</v>
+      </c>
+      <c r="H7">
+        <v>0.0160200668686376</v>
+      </c>
+      <c r="I7">
+        <v>-0.03899694282319089</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.04241996710286149</v>
+        <v>-0.04539027574806265</v>
       </c>
       <c r="C8">
-        <v>0.008958068910762243</v>
+        <v>-0.02765005341877132</v>
       </c>
       <c r="D8">
-        <v>0.06222714118654202</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.004141447397963839</v>
+      </c>
+      <c r="E8">
+        <v>0.01309376468800704</v>
+      </c>
+      <c r="F8">
+        <v>0.06619540515194071</v>
+      </c>
+      <c r="G8">
+        <v>-0.06427203259939805</v>
+      </c>
+      <c r="H8">
+        <v>-0.008889649254117542</v>
+      </c>
+      <c r="I8">
+        <v>-0.1327693426016748</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.07227290227489276</v>
+        <v>-0.08186707144669221</v>
       </c>
       <c r="C9">
-        <v>-0.04398691353568966</v>
+        <v>-0.0408130987582255</v>
       </c>
       <c r="D9">
-        <v>0.07437589472775714</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.0606484049531714</v>
+      </c>
+      <c r="E9">
+        <v>0.0160525155642606</v>
+      </c>
+      <c r="F9">
+        <v>0.0406907364995738</v>
+      </c>
+      <c r="G9">
+        <v>-0.04618620894210208</v>
+      </c>
+      <c r="H9">
+        <v>0.03301134651404672</v>
+      </c>
+      <c r="I9">
+        <v>-0.07467854615968424</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.02549257930633983</v>
+        <v>-0.05577641268065111</v>
       </c>
       <c r="C10">
-        <v>-0.01439642474713339</v>
+        <v>0.1880645296400043</v>
       </c>
       <c r="D10">
-        <v>-0.1693347339428176</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.04984623527628423</v>
+      </c>
+      <c r="E10">
+        <v>0.02511068484462445</v>
+      </c>
+      <c r="F10">
+        <v>0.05773517005502275</v>
+      </c>
+      <c r="G10">
+        <v>0.04006889479646595</v>
+      </c>
+      <c r="H10">
+        <v>-0.03631886153494481</v>
+      </c>
+      <c r="I10">
+        <v>0.03575627673813953</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.06782822015493083</v>
+        <v>-0.07243160697536215</v>
       </c>
       <c r="C11">
-        <v>-0.0400225146264352</v>
+        <v>-0.03986742659893979</v>
       </c>
       <c r="D11">
-        <v>0.0559994804658317</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.04987474145523092</v>
+      </c>
+      <c r="E11">
+        <v>0.0006469207618276898</v>
+      </c>
+      <c r="F11">
+        <v>0.04096999847822529</v>
+      </c>
+      <c r="G11">
+        <v>-0.0538812102949399</v>
+      </c>
+      <c r="H11">
+        <v>0.05624043216919612</v>
+      </c>
+      <c r="I11">
+        <v>-0.06769036309750193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.0627470812784018</v>
+        <v>-0.06926384979476514</v>
       </c>
       <c r="C12">
-        <v>-0.05068308243585734</v>
+        <v>-0.02694343062121453</v>
       </c>
       <c r="D12">
-        <v>0.04734317370956163</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05302029006160226</v>
+      </c>
+      <c r="E12">
+        <v>0.007515175431580203</v>
+      </c>
+      <c r="F12">
+        <v>0.02960732760889686</v>
+      </c>
+      <c r="G12">
+        <v>-0.02728425393411536</v>
+      </c>
+      <c r="H12">
+        <v>0.02703177168394049</v>
+      </c>
+      <c r="I12">
+        <v>-0.09259621794924044</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.06900741981289589</v>
+        <v>-0.0681628857233359</v>
       </c>
       <c r="C13">
-        <v>-0.04358175392775043</v>
+        <v>-0.02279729636481022</v>
       </c>
       <c r="D13">
-        <v>0.05049911268320242</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.04448935604811848</v>
+      </c>
+      <c r="E13">
+        <v>0.01023795122688809</v>
+      </c>
+      <c r="F13">
+        <v>0.01828299812775959</v>
+      </c>
+      <c r="G13">
+        <v>-0.0259771615939565</v>
+      </c>
+      <c r="H13">
+        <v>0.04767425660598856</v>
+      </c>
+      <c r="I13">
+        <v>-0.1078278261607968</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.02798409663536231</v>
+        <v>-0.04017759575352038</v>
       </c>
       <c r="C14">
-        <v>-0.03454881682684422</v>
+        <v>0.003882769447424661</v>
       </c>
       <c r="D14">
-        <v>0.001305879838940208</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03808354999789568</v>
+      </c>
+      <c r="E14">
+        <v>0.01738135513235946</v>
+      </c>
+      <c r="F14">
+        <v>0.02295547175454702</v>
+      </c>
+      <c r="G14">
+        <v>-0.03155505128694199</v>
+      </c>
+      <c r="H14">
+        <v>0.06449222895916958</v>
+      </c>
+      <c r="I14">
+        <v>-0.05120253213205553</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.04488303159467084</v>
+        <v>-0.0409282570092788</v>
       </c>
       <c r="C15">
-        <v>-0.01054522218291583</v>
+        <v>-0.01281972631334253</v>
       </c>
       <c r="D15">
-        <v>0.02813076190831032</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.00918134313493681</v>
+      </c>
+      <c r="E15">
+        <v>0.03165389436077514</v>
+      </c>
+      <c r="F15">
+        <v>-0.002212177171513348</v>
+      </c>
+      <c r="G15">
+        <v>-0.02924148381081194</v>
+      </c>
+      <c r="H15">
+        <v>0.0197478555142502</v>
+      </c>
+      <c r="I15">
+        <v>-0.02972367939627488</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.05794330561804226</v>
+        <v>-0.07034749208809889</v>
       </c>
       <c r="C16">
-        <v>-0.04045139191962827</v>
+        <v>-0.03852823624191024</v>
       </c>
       <c r="D16">
-        <v>0.05589380548717353</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.05648868721693295</v>
+      </c>
+      <c r="E16">
+        <v>0.001933274470173695</v>
+      </c>
+      <c r="F16">
+        <v>0.03490588567278688</v>
+      </c>
+      <c r="G16">
+        <v>-0.02995962215259229</v>
+      </c>
+      <c r="H16">
+        <v>0.0405054292493237</v>
+      </c>
+      <c r="I16">
+        <v>-0.06288919072327426</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1184,25 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1213,25 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1242,228 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.06295189657546747</v>
+        <v>-0.06288940401820715</v>
       </c>
       <c r="C20">
-        <v>-0.02291809457487448</v>
+        <v>-0.03283772455579745</v>
       </c>
       <c r="D20">
-        <v>0.05250711195186313</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.02815688449231815</v>
+      </c>
+      <c r="E20">
+        <v>0.001002601799033468</v>
+      </c>
+      <c r="F20">
+        <v>0.02677626079109462</v>
+      </c>
+      <c r="G20">
+        <v>-0.02320723793344521</v>
+      </c>
+      <c r="H20">
+        <v>0.0450014120548343</v>
+      </c>
+      <c r="I20">
+        <v>-0.08456615114590101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.03149328250332476</v>
+        <v>-0.02546777961475021</v>
       </c>
       <c r="C21">
-        <v>-0.01142838843380241</v>
+        <v>-0.01869987420429087</v>
       </c>
       <c r="D21">
-        <v>0.01196873905177827</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.01212576935061734</v>
+      </c>
+      <c r="E21">
+        <v>0.0351899584627899</v>
+      </c>
+      <c r="F21">
+        <v>-0.01306363279128488</v>
+      </c>
+      <c r="G21">
+        <v>-0.00550345905008694</v>
+      </c>
+      <c r="H21">
+        <v>-0.0529857504353891</v>
+      </c>
+      <c r="I21">
+        <v>-0.026460008666021</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>-0.08098177134983593</v>
+        <v>-0.07499923538942291</v>
       </c>
       <c r="C22">
-        <v>-0.08578894367781378</v>
+        <v>-0.05091027284408568</v>
       </c>
       <c r="D22">
-        <v>0.139302541556361</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1086130937929463</v>
+      </c>
+      <c r="E22">
+        <v>0.6047251311202297</v>
+      </c>
+      <c r="F22">
+        <v>-0.0002835146520428447</v>
+      </c>
+      <c r="G22">
+        <v>0.2024129399485702</v>
+      </c>
+      <c r="H22">
+        <v>-0.1222192572007782</v>
+      </c>
+      <c r="I22">
+        <v>0.1832545194652109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>-0.08163488752824538</v>
+        <v>-0.07585527163924632</v>
       </c>
       <c r="C23">
-        <v>-0.08673368075984061</v>
+        <v>-0.05092509021213736</v>
       </c>
       <c r="D23">
-        <v>0.1393497422678215</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1098859772812014</v>
+      </c>
+      <c r="E23">
+        <v>0.60722235348857</v>
+      </c>
+      <c r="F23">
+        <v>0.001530556363098633</v>
+      </c>
+      <c r="G23">
+        <v>0.1957058272391149</v>
+      </c>
+      <c r="H23">
+        <v>-0.1222456884274186</v>
+      </c>
+      <c r="I23">
+        <v>0.1842079891426358</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.07502987152159103</v>
+        <v>-0.07995739415846266</v>
       </c>
       <c r="C24">
-        <v>-0.04839137934241357</v>
+        <v>-0.0364050509373828</v>
       </c>
       <c r="D24">
-        <v>0.06064427117001579</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.05650063337009569</v>
+      </c>
+      <c r="E24">
+        <v>0.009284804425012968</v>
+      </c>
+      <c r="F24">
+        <v>0.04310590335853749</v>
+      </c>
+      <c r="G24">
+        <v>-0.04683498196313727</v>
+      </c>
+      <c r="H24">
+        <v>0.02668026912437441</v>
+      </c>
+      <c r="I24">
+        <v>-0.07248088906137158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.07229550868884226</v>
+        <v>-0.07752708511248046</v>
       </c>
       <c r="C25">
-        <v>-0.05474088475139053</v>
+        <v>-0.02660412005174042</v>
       </c>
       <c r="D25">
-        <v>0.05803151223729822</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.0585630863662378</v>
+      </c>
+      <c r="E25">
+        <v>0.01578507772062947</v>
+      </c>
+      <c r="F25">
+        <v>0.03721938497924168</v>
+      </c>
+      <c r="G25">
+        <v>-0.05362486484574184</v>
+      </c>
+      <c r="H25">
+        <v>0.03313037405955037</v>
+      </c>
+      <c r="I25">
+        <v>-0.08458047585289991</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.04501079242113541</v>
+        <v>-0.04649794401047989</v>
       </c>
       <c r="C26">
-        <v>-0.01445957455551078</v>
+        <v>-0.01388405524136537</v>
       </c>
       <c r="D26">
-        <v>0.01571577741880309</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.01499345997331409</v>
+      </c>
+      <c r="E26">
+        <v>0.04210465565313107</v>
+      </c>
+      <c r="F26">
+        <v>0.02640465941863058</v>
+      </c>
+      <c r="G26">
+        <v>-0.02959082387607096</v>
+      </c>
+      <c r="H26">
+        <v>0.03455746617654296</v>
+      </c>
+      <c r="I26">
+        <v>-0.00453463887030172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1474,286 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.05170828269355884</v>
+        <v>-0.07934364558049427</v>
       </c>
       <c r="C28">
-        <v>-0.06848928175235805</v>
+        <v>0.3078559313192084</v>
       </c>
       <c r="D28">
-        <v>-0.3042192766374434</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.06337573462671693</v>
+      </c>
+      <c r="E28">
+        <v>0.02901693456863323</v>
+      </c>
+      <c r="F28">
+        <v>0.05138655977943839</v>
+      </c>
+      <c r="G28">
+        <v>-0.02342299202543037</v>
+      </c>
+      <c r="H28">
+        <v>-0.07726348906137021</v>
+      </c>
+      <c r="I28">
+        <v>0.01216281699228219</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.04531645421641231</v>
+        <v>-0.05074810789700542</v>
       </c>
       <c r="C29">
-        <v>-0.04786511002247876</v>
+        <v>0.00505098193554309</v>
       </c>
       <c r="D29">
-        <v>0.004379692548554412</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.04331729953136441</v>
+      </c>
+      <c r="E29">
+        <v>0.04280825037414425</v>
+      </c>
+      <c r="F29">
+        <v>0.02920919800354176</v>
+      </c>
+      <c r="G29">
+        <v>-0.02255040021381871</v>
+      </c>
+      <c r="H29">
+        <v>0.08755197736675704</v>
+      </c>
+      <c r="I29">
+        <v>-0.04703489848639331</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.1376151817116103</v>
+        <v>-0.1279567779859546</v>
       </c>
       <c r="C30">
-        <v>-0.08405253127554602</v>
+        <v>-0.04155218685079926</v>
       </c>
       <c r="D30">
-        <v>0.09786827772887617</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08167015626275029</v>
+      </c>
+      <c r="E30">
+        <v>0.0597066051201184</v>
+      </c>
+      <c r="F30">
+        <v>0.02926763653183127</v>
+      </c>
+      <c r="G30">
+        <v>-0.0565837498746991</v>
+      </c>
+      <c r="H30">
+        <v>-0.05199074453612445</v>
+      </c>
+      <c r="I30">
+        <v>-0.185031323682474</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.04836428816952578</v>
+        <v>-0.04756814165750705</v>
       </c>
       <c r="C31">
-        <v>-0.02767111746237034</v>
+        <v>-0.02562869390093036</v>
       </c>
       <c r="D31">
-        <v>0.02327616366280366</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.03178139270802956</v>
+      </c>
+      <c r="E31">
+        <v>0.01855229870568115</v>
+      </c>
+      <c r="F31">
+        <v>0.01346511979958435</v>
+      </c>
+      <c r="G31">
+        <v>-0.006646773788603029</v>
+      </c>
+      <c r="H31">
+        <v>0.0670822177539501</v>
+      </c>
+      <c r="I31">
+        <v>-0.03465808281093735</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.03564037221089589</v>
+        <v>-0.04024531103972889</v>
       </c>
       <c r="C32">
-        <v>-0.01075842268461625</v>
+        <v>0.002556613817762254</v>
       </c>
       <c r="D32">
-        <v>0.03003789053953611</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.01254876244971561</v>
+      </c>
+      <c r="E32">
+        <v>0.04386110456774484</v>
+      </c>
+      <c r="F32">
+        <v>-0.01545644817434029</v>
+      </c>
+      <c r="G32">
+        <v>-0.02092816695134295</v>
+      </c>
+      <c r="H32">
+        <v>-0.01041283925946267</v>
+      </c>
+      <c r="I32">
+        <v>0.01646707100804903</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.08997262430228026</v>
+        <v>-0.09438584282411282</v>
       </c>
       <c r="C33">
-        <v>-0.04325410876550834</v>
+        <v>-0.03537328076194811</v>
       </c>
       <c r="D33">
-        <v>0.04872046873767374</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.04642091069973393</v>
+      </c>
+      <c r="E33">
+        <v>0.01495849015001462</v>
+      </c>
+      <c r="F33">
+        <v>0.004339364073291009</v>
+      </c>
+      <c r="G33">
+        <v>-0.01077499477127028</v>
+      </c>
+      <c r="H33">
+        <v>0.06134173359554499</v>
+      </c>
+      <c r="I33">
+        <v>-0.08116817507327859</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.05879350089781748</v>
+        <v>-0.06757433160801317</v>
       </c>
       <c r="C34">
-        <v>-0.02464893163561063</v>
+        <v>-0.03393610934383379</v>
       </c>
       <c r="D34">
-        <v>0.05467921933206368</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03585877428116753</v>
+      </c>
+      <c r="E34">
+        <v>0.01130661801113664</v>
+      </c>
+      <c r="F34">
+        <v>0.02603363359065836</v>
+      </c>
+      <c r="G34">
+        <v>-0.0336046040457064</v>
+      </c>
+      <c r="H34">
+        <v>0.04834599884822065</v>
+      </c>
+      <c r="I34">
+        <v>-0.0641964613410687</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>-0.03592835791200862</v>
+        <v>-0.03662825668791742</v>
       </c>
       <c r="C35">
-        <v>-0.01795150726574896</v>
+        <v>-0.01126456573917524</v>
       </c>
       <c r="D35">
-        <v>0.01933614342006564</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01947301964113002</v>
+      </c>
+      <c r="E35">
+        <v>0.01683399489707809</v>
+      </c>
+      <c r="F35">
+        <v>-0.01254337090258796</v>
+      </c>
+      <c r="G35">
+        <v>-0.005207501711508995</v>
+      </c>
+      <c r="H35">
+        <v>0.03457693722035949</v>
+      </c>
+      <c r="I35">
+        <v>-0.04604535439533065</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.02824176839528827</v>
+        <v>-0.0294414775328357</v>
       </c>
       <c r="C36">
-        <v>-0.01875140564593552</v>
+        <v>-0.01001122677729963</v>
       </c>
       <c r="D36">
-        <v>0.02020820205139169</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02073278075420098</v>
+      </c>
+      <c r="E36">
+        <v>0.03180838413402572</v>
+      </c>
+      <c r="F36">
+        <v>0.03223820656191769</v>
+      </c>
+      <c r="G36">
+        <v>-0.0188416308239286</v>
+      </c>
+      <c r="H36">
+        <v>0.04011342033434546</v>
+      </c>
+      <c r="I36">
+        <v>-0.06430472233528194</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1764,141 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.06298909670920391</v>
+        <v>-0.05401142731063077</v>
       </c>
       <c r="C38">
-        <v>-0.01046890002683022</v>
+        <v>-0.02681334954834504</v>
       </c>
       <c r="D38">
-        <v>0.004155897062525097</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.008024482898950363</v>
+      </c>
+      <c r="E38">
+        <v>0.05263227379112222</v>
+      </c>
+      <c r="F38">
+        <v>-0.005273709296189115</v>
+      </c>
+      <c r="G38">
+        <v>0.009667763198625046</v>
+      </c>
+      <c r="H38">
+        <v>0.02996910386832586</v>
+      </c>
+      <c r="I38">
+        <v>-0.02883801030671135</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.09650601383521872</v>
+        <v>-0.1027470455353243</v>
       </c>
       <c r="C39">
-        <v>-0.06455956168411288</v>
+        <v>-0.02702532189413752</v>
       </c>
       <c r="D39">
-        <v>0.04044297078585573</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.06767661438622631</v>
+      </c>
+      <c r="E39">
+        <v>0.005718805139599972</v>
+      </c>
+      <c r="F39">
+        <v>0.01678036701295786</v>
+      </c>
+      <c r="G39">
+        <v>-0.04482229684712833</v>
+      </c>
+      <c r="H39">
+        <v>0.01451787578932488</v>
+      </c>
+      <c r="I39">
+        <v>-0.04570514336194465</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.07751849265718461</v>
+        <v>-0.05634188725187943</v>
       </c>
       <c r="C40">
-        <v>-0.02131164796644676</v>
+        <v>-0.03347588139839742</v>
       </c>
       <c r="D40">
-        <v>0.01548348128501224</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.006470706752351667</v>
+      </c>
+      <c r="E40">
+        <v>0.04030199089738287</v>
+      </c>
+      <c r="F40">
+        <v>-0.02801480361953824</v>
+      </c>
+      <c r="G40">
+        <v>-0.05608720999663643</v>
+      </c>
+      <c r="H40">
+        <v>-0.04558979681421109</v>
+      </c>
+      <c r="I40">
+        <v>-0.2405636589327339</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.04811014732209324</v>
+        <v>-0.04680615303403228</v>
       </c>
       <c r="C41">
-        <v>-0.01477423115134961</v>
+        <v>-0.02874118274867811</v>
       </c>
       <c r="D41">
-        <v>0.03220974656283642</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01829001200454808</v>
+      </c>
+      <c r="E41">
+        <v>0.001130846446014629</v>
+      </c>
+      <c r="F41">
+        <v>-0.01335259802373438</v>
+      </c>
+      <c r="G41">
+        <v>-0.009218940634326631</v>
+      </c>
+      <c r="H41">
+        <v>0.03585239036782197</v>
+      </c>
+      <c r="I41">
+        <v>-0.02079596467161585</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1909,83 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.05586831388701835</v>
+        <v>-0.06064287208437198</v>
       </c>
       <c r="C43">
-        <v>-0.03274153309217691</v>
+        <v>-0.01783779522047201</v>
       </c>
       <c r="D43">
-        <v>0.01027497667841233</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.03472760900636782</v>
+      </c>
+      <c r="E43">
+        <v>0.01650935563684564</v>
+      </c>
+      <c r="F43">
+        <v>0.01793571096468441</v>
+      </c>
+      <c r="G43">
+        <v>0.006120977760733453</v>
+      </c>
+      <c r="H43">
+        <v>0.05867406176036679</v>
+      </c>
+      <c r="I43">
+        <v>-0.003288731472660688</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.09419181370108272</v>
+        <v>-0.09299152609890754</v>
       </c>
       <c r="C44">
-        <v>-0.02464988338456726</v>
+        <v>-0.04350084131673296</v>
       </c>
       <c r="D44">
-        <v>0.05527855457361542</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.03392082861806991</v>
+      </c>
+      <c r="E44">
+        <v>0.06899890158920001</v>
+      </c>
+      <c r="F44">
+        <v>0.08889200926123181</v>
+      </c>
+      <c r="G44">
+        <v>-0.07828914500789562</v>
+      </c>
+      <c r="H44">
+        <v>0.05225282433956394</v>
+      </c>
+      <c r="I44">
+        <v>-0.1103046511337714</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1996,199 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.02553375483943928</v>
+        <v>-0.03872840983092495</v>
       </c>
       <c r="C46">
-        <v>-0.02355017504332068</v>
+        <v>-0.0202273027321184</v>
       </c>
       <c r="D46">
-        <v>0.03156577330474786</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.03966081628188179</v>
+      </c>
+      <c r="E46">
+        <v>0.02734916716042618</v>
+      </c>
+      <c r="F46">
+        <v>0.02165969322079826</v>
+      </c>
+      <c r="G46">
+        <v>-0.004190222630614093</v>
+      </c>
+      <c r="H46">
+        <v>0.03262135376092093</v>
+      </c>
+      <c r="I46">
+        <v>-0.02836158120752504</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.03468591740507766</v>
+        <v>-0.0436851712952706</v>
       </c>
       <c r="C47">
-        <v>-0.02554373639697085</v>
+        <v>0.0002361642691410504</v>
       </c>
       <c r="D47">
-        <v>5.35133776506808e-05</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.02561396564024512</v>
+      </c>
+      <c r="E47">
+        <v>0.03915407480828535</v>
+      </c>
+      <c r="F47">
+        <v>-0.0002555922274393727</v>
+      </c>
+      <c r="G47">
+        <v>0.02195899967263772</v>
+      </c>
+      <c r="H47">
+        <v>0.03111492231529306</v>
+      </c>
+      <c r="I47">
+        <v>-0.0610537993169542</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.04130563718771914</v>
+        <v>-0.04219156515028247</v>
       </c>
       <c r="C48">
-        <v>-0.02594357943847328</v>
+        <v>-0.009100407424418559</v>
       </c>
       <c r="D48">
-        <v>0.03161888595582747</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.02327370196097339</v>
+      </c>
+      <c r="E48">
+        <v>0.04003274901806959</v>
+      </c>
+      <c r="F48">
+        <v>0.01055372217841143</v>
+      </c>
+      <c r="G48">
+        <v>-0.01828865029248193</v>
+      </c>
+      <c r="H48">
+        <v>0.0156064395298013</v>
+      </c>
+      <c r="I48">
+        <v>-0.04712009222601439</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B49">
-        <v>-0.1670789483583918</v>
+        <v>-0.2018776339607349</v>
       </c>
       <c r="C49">
-        <v>-0.03747584653725276</v>
+        <v>-0.008459205212630324</v>
       </c>
       <c r="D49">
-        <v>0.01126005611086305</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.03455486363408962</v>
+      </c>
+      <c r="E49">
+        <v>-0.1825663693233157</v>
+      </c>
+      <c r="F49">
+        <v>0.01152540015609411</v>
+      </c>
+      <c r="G49">
+        <v>0.165282985840661</v>
+      </c>
+      <c r="H49">
+        <v>-0.2155738465847632</v>
+      </c>
+      <c r="I49">
+        <v>0.05114175923929679</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.04737221106293549</v>
+        <v>-0.04991176568154294</v>
       </c>
       <c r="C50">
-        <v>-0.0376075121135314</v>
+        <v>-0.0202022116037943</v>
       </c>
       <c r="D50">
-        <v>0.03463641102445329</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.04233137411364978</v>
+      </c>
+      <c r="E50">
+        <v>0.02329056335127106</v>
+      </c>
+      <c r="F50">
+        <v>0.00736900933365717</v>
+      </c>
+      <c r="G50">
+        <v>-0.01660956979631672</v>
+      </c>
+      <c r="H50">
+        <v>0.06611883134594765</v>
+      </c>
+      <c r="I50">
+        <v>-0.02452072953551835</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.02484822837999136</v>
+        <v>-0.03406074885128321</v>
       </c>
       <c r="C51">
-        <v>-0.003248559448601885</v>
+        <v>0.003751638300847128</v>
       </c>
       <c r="D51">
-        <v>-0.003603212016076907</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.001184760010761281</v>
+      </c>
+      <c r="E51">
+        <v>0.00497296168654686</v>
+      </c>
+      <c r="F51">
+        <v>0.01410277118556486</v>
+      </c>
+      <c r="G51">
+        <v>0.02568793628537051</v>
+      </c>
+      <c r="H51">
+        <v>-0.02020456131191554</v>
+      </c>
+      <c r="I51">
+        <v>0.0159763085821075</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2199,141 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.1572631757827897</v>
+        <v>-0.1617989123177069</v>
       </c>
       <c r="C53">
-        <v>-0.07580048727639883</v>
+        <v>0.008200714113301064</v>
       </c>
       <c r="D53">
-        <v>-0.01347437073104406</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.05252958282587379</v>
+      </c>
+      <c r="E53">
+        <v>-0.0344381394352395</v>
+      </c>
+      <c r="F53">
+        <v>-0.001762994953910364</v>
+      </c>
+      <c r="G53">
+        <v>-0.01029143279360147</v>
+      </c>
+      <c r="H53">
+        <v>0.2008135688405178</v>
+      </c>
+      <c r="I53">
+        <v>0.1135634975152884</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.05900930038031325</v>
+        <v>-0.0600355364701344</v>
       </c>
       <c r="C54">
-        <v>-0.02783429774970929</v>
+        <v>-0.001300470221425976</v>
       </c>
       <c r="D54">
-        <v>0.02228147336413026</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02359100307132083</v>
+      </c>
+      <c r="E54">
+        <v>0.05813385301400625</v>
+      </c>
+      <c r="F54">
+        <v>0.02493794365534721</v>
+      </c>
+      <c r="G54">
+        <v>-0.06002690364114012</v>
+      </c>
+      <c r="H54">
+        <v>0.03558877860786881</v>
+      </c>
+      <c r="I54">
+        <v>-0.1070261108078068</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.09936076938910367</v>
+        <v>-0.1007615004758369</v>
       </c>
       <c r="C55">
-        <v>-0.05148571987387237</v>
+        <v>-0.009078103291549657</v>
       </c>
       <c r="D55">
-        <v>0.01152333053556733</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.04215606209162658</v>
+      </c>
+      <c r="E55">
+        <v>-0.008221796320152408</v>
+      </c>
+      <c r="F55">
+        <v>0.01924602360040214</v>
+      </c>
+      <c r="G55">
+        <v>-0.03255702971500061</v>
+      </c>
+      <c r="H55">
+        <v>0.1559963648709558</v>
+      </c>
+      <c r="I55">
+        <v>0.03033281922456004</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.1456360530616288</v>
+        <v>-0.1516159089739723</v>
       </c>
       <c r="C56">
-        <v>-0.09015213795880492</v>
+        <v>-0.007165646322275661</v>
       </c>
       <c r="D56">
-        <v>-0.003955577612899189</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.0736552435538492</v>
+      </c>
+      <c r="E56">
+        <v>-0.02219386495214417</v>
+      </c>
+      <c r="F56">
+        <v>0.01461923174211954</v>
+      </c>
+      <c r="G56">
+        <v>-0.02866457370382514</v>
+      </c>
+      <c r="H56">
+        <v>0.1928881165227169</v>
+      </c>
+      <c r="I56">
+        <v>0.130857536717618</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2344,1127 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.1168303120802883</v>
+        <v>-0.08861387489876105</v>
       </c>
       <c r="C58">
-        <v>0.03750517128050637</v>
+        <v>-0.06542683169662121</v>
       </c>
       <c r="D58">
-        <v>0.06802320384636208</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.04760610263757704</v>
+      </c>
+      <c r="E58">
+        <v>0.1102822743318588</v>
+      </c>
+      <c r="F58">
+        <v>0.03606077079465014</v>
+      </c>
+      <c r="G58">
+        <v>0.09103151994103863</v>
+      </c>
+      <c r="H58">
+        <v>-0.1283105734008132</v>
+      </c>
+      <c r="I58">
+        <v>-0.6044244036642069</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.1282450108994502</v>
+        <v>-0.1523882677071061</v>
       </c>
       <c r="C59">
-        <v>-0.06644990715193107</v>
+        <v>0.3503334019838707</v>
       </c>
       <c r="D59">
-        <v>-0.4254035949333398</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.1030746634859414</v>
+      </c>
+      <c r="E59">
+        <v>0.02613423902254444</v>
+      </c>
+      <c r="F59">
+        <v>0.01254476694224384</v>
+      </c>
+      <c r="G59">
+        <v>-0.009605890339541524</v>
+      </c>
+      <c r="H59">
+        <v>0.01853650230443495</v>
+      </c>
+      <c r="I59">
+        <v>0.04345141025935247</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.211865028964189</v>
+        <v>-0.2399927529841203</v>
       </c>
       <c r="C60">
-        <v>-0.08679176163274231</v>
+        <v>-0.004298487827742888</v>
       </c>
       <c r="D60">
-        <v>-0.003671235396418442</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.06874790332479462</v>
+      </c>
+      <c r="E60">
+        <v>-0.1314790794832507</v>
+      </c>
+      <c r="F60">
+        <v>0.04334020930260537</v>
+      </c>
+      <c r="G60">
+        <v>0.03063179342880297</v>
+      </c>
+      <c r="H60">
+        <v>-0.1598258236270928</v>
+      </c>
+      <c r="I60">
+        <v>0.1139473385701995</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.07680336783315632</v>
+        <v>-0.08416644509047962</v>
       </c>
       <c r="C61">
-        <v>-0.04984176819444803</v>
+        <v>-0.02039361147926647</v>
       </c>
       <c r="D61">
-        <v>0.02987904094882373</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.05310400169513359</v>
+      </c>
+      <c r="E61">
+        <v>0.005216501483796755</v>
+      </c>
+      <c r="F61">
+        <v>0.02276496723361472</v>
+      </c>
+      <c r="G61">
+        <v>-0.04767983431820561</v>
+      </c>
+      <c r="H61">
+        <v>0.06766729103353199</v>
+      </c>
+      <c r="I61">
+        <v>-0.02837862960855095</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B62">
-        <v>-0.1351752764625747</v>
+        <v>-0.1411117271156269</v>
       </c>
       <c r="C62">
-        <v>-0.05578184743135709</v>
+        <v>-0.02216148953042451</v>
       </c>
       <c r="D62">
-        <v>-0.001539415994243488</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.04575087605571626</v>
+      </c>
+      <c r="E62">
+        <v>-0.04067717954496545</v>
+      </c>
+      <c r="F62">
+        <v>-0.03011096245586278</v>
+      </c>
+      <c r="G62">
+        <v>-0.05474519376120082</v>
+      </c>
+      <c r="H62">
+        <v>0.1790505579622027</v>
+      </c>
+      <c r="I62">
+        <v>0.1379513853888578</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.05234005880177869</v>
+        <v>-0.04942773245019979</v>
       </c>
       <c r="C63">
-        <v>-0.02839548388144235</v>
+        <v>-0.01204001191984326</v>
       </c>
       <c r="D63">
-        <v>0.02820746818855231</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.0276379986723972</v>
+      </c>
+      <c r="E63">
+        <v>0.03386259051910028</v>
+      </c>
+      <c r="F63">
+        <v>0.00399025517426718</v>
+      </c>
+      <c r="G63">
+        <v>-0.04805148569786277</v>
+      </c>
+      <c r="H63">
+        <v>0.02616581316715853</v>
+      </c>
+      <c r="I63">
+        <v>-0.02173366459705704</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.1085953695140995</v>
+        <v>-0.1124365276326267</v>
       </c>
       <c r="C64">
-        <v>-0.03406002204981698</v>
+        <v>-0.01208711845219592</v>
       </c>
       <c r="D64">
-        <v>0.01671083089994262</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.02990924707892734</v>
+      </c>
+      <c r="E64">
+        <v>0.03135988964801062</v>
+      </c>
+      <c r="F64">
+        <v>0.04673275381016766</v>
+      </c>
+      <c r="G64">
+        <v>-0.05467619831431943</v>
+      </c>
+      <c r="H64">
+        <v>0.01087960747396398</v>
+      </c>
+      <c r="I64">
+        <v>-0.02511663021138505</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>-0.126075117757065</v>
+        <v>-0.1324096534338697</v>
       </c>
       <c r="C65">
-        <v>-0.05604765240937701</v>
+        <v>0.01058647886613031</v>
       </c>
       <c r="D65">
-        <v>0.01868347886335935</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04455310721053043</v>
+      </c>
+      <c r="E65">
+        <v>-0.005128418857492238</v>
+      </c>
+      <c r="F65">
+        <v>0.0322434667516405</v>
+      </c>
+      <c r="G65">
+        <v>-0.07851199373201403</v>
+      </c>
+      <c r="H65">
+        <v>-0.2109316211461306</v>
+      </c>
+      <c r="I65">
+        <v>-0.09200233655057515</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.1530589345944772</v>
+        <v>-0.1492065068359948</v>
       </c>
       <c r="C66">
-        <v>-0.08378521393970867</v>
+        <v>-0.06524293593505266</v>
       </c>
       <c r="D66">
-        <v>0.07720916163369569</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.09202171996250896</v>
+      </c>
+      <c r="E66">
+        <v>-0.02840466730176778</v>
+      </c>
+      <c r="F66">
+        <v>0.001706988311677727</v>
+      </c>
+      <c r="G66">
+        <v>-0.08485455173013412</v>
+      </c>
+      <c r="H66">
+        <v>0.0758012188402449</v>
+      </c>
+      <c r="I66">
+        <v>-0.06787497105981442</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.09017463224332989</v>
+        <v>-0.09245148100271258</v>
       </c>
       <c r="C67">
-        <v>-0.0163585187353588</v>
+        <v>-0.03272277083842946</v>
       </c>
       <c r="D67">
-        <v>0.01217201761022993</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.01904823463458018</v>
+      </c>
+      <c r="E67">
+        <v>0.02142040878806572</v>
+      </c>
+      <c r="F67">
+        <v>0.007173045871330237</v>
+      </c>
+      <c r="G67">
+        <v>0.02679288661769374</v>
+      </c>
+      <c r="H67">
+        <v>0.02157526917655751</v>
+      </c>
+      <c r="I67">
+        <v>0.006029125505019529</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.049964355273591</v>
+        <v>-0.06686541622149694</v>
       </c>
       <c r="C68">
-        <v>-0.03443017310725745</v>
+        <v>0.2684793276053191</v>
       </c>
       <c r="D68">
-        <v>-0.2546127534578649</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.07780641672476349</v>
+      </c>
+      <c r="E68">
+        <v>0.04362418485490104</v>
+      </c>
+      <c r="F68">
+        <v>0.01751758527956371</v>
+      </c>
+      <c r="G68">
+        <v>-0.004514434371986948</v>
+      </c>
+      <c r="H68">
+        <v>0.02047292391922621</v>
+      </c>
+      <c r="I68">
+        <v>-0.01918553283800715</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.05970161719408049</v>
+        <v>-0.05385488342193495</v>
       </c>
       <c r="C69">
-        <v>-0.02775956402477876</v>
+        <v>-0.01627745956652114</v>
       </c>
       <c r="D69">
-        <v>0.01941448052769558</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.02082628213120381</v>
+      </c>
+      <c r="E69">
+        <v>0.02215850730194094</v>
+      </c>
+      <c r="F69">
+        <v>-0.01337816961710722</v>
+      </c>
+      <c r="G69">
+        <v>-0.008410519572947219</v>
+      </c>
+      <c r="H69">
+        <v>0.04009186179611836</v>
+      </c>
+      <c r="I69">
+        <v>-0.01750752372089145</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B70">
-        <v>-0.01109169867569386</v>
+        <v>-0.03198123273350125</v>
       </c>
       <c r="C70">
-        <v>-0.001140634752325634</v>
+        <v>0.001958272288309906</v>
       </c>
       <c r="D70">
-        <v>-0.01407129344177203</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.001142635444760708</v>
+      </c>
+      <c r="E70">
+        <v>-0.02376768618595102</v>
+      </c>
+      <c r="F70">
+        <v>-0.008178076715018421</v>
+      </c>
+      <c r="G70">
+        <v>0.02266739199689008</v>
+      </c>
+      <c r="H70">
+        <v>-0.02566326052365863</v>
+      </c>
+      <c r="I70">
+        <v>0.001963432383838422</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.04999887510196806</v>
+        <v>-0.07479321030808851</v>
       </c>
       <c r="C71">
-        <v>-0.02919144291058574</v>
+        <v>0.2902720989590671</v>
       </c>
       <c r="D71">
-        <v>-0.2863605156939242</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.0863681585658234</v>
+      </c>
+      <c r="E71">
+        <v>0.03612010041727041</v>
+      </c>
+      <c r="F71">
+        <v>0.04510893638977242</v>
+      </c>
+      <c r="G71">
+        <v>-0.004165913911887577</v>
+      </c>
+      <c r="H71">
+        <v>0.0234019574432581</v>
+      </c>
+      <c r="I71">
+        <v>-0.01950150912381528</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.1429207175722233</v>
+        <v>-0.1399243825662123</v>
       </c>
       <c r="C72">
-        <v>-0.04617100802521535</v>
+        <v>0.01271601238244163</v>
       </c>
       <c r="D72">
-        <v>-0.02982830167472807</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.01131287337566671</v>
+      </c>
+      <c r="E72">
+        <v>-0.03014502447788051</v>
+      </c>
+      <c r="F72">
+        <v>-0.1625418200204964</v>
+      </c>
+      <c r="G72">
+        <v>-0.108492556872581</v>
+      </c>
+      <c r="H72">
+        <v>-0.001022646285178349</v>
+      </c>
+      <c r="I72">
+        <v>0.02468300734846454</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.2700022215069206</v>
+        <v>-0.2725770010301952</v>
       </c>
       <c r="C73">
-        <v>-0.06355403080122193</v>
+        <v>-0.07563508270808741</v>
       </c>
       <c r="D73">
-        <v>0.04532612253218116</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.04315743889535043</v>
+      </c>
+      <c r="E73">
+        <v>-0.2878759470133935</v>
+      </c>
+      <c r="F73">
+        <v>0.04837810441761927</v>
+      </c>
+      <c r="G73">
+        <v>0.2728826987418699</v>
+      </c>
+      <c r="H73">
+        <v>-0.3156277938182244</v>
+      </c>
+      <c r="I73">
+        <v>0.02929144425583414</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.08128159475040456</v>
+        <v>-0.09086565963943814</v>
       </c>
       <c r="C74">
-        <v>-0.07511746235493758</v>
+        <v>-0.006793355446250213</v>
       </c>
       <c r="D74">
-        <v>0.004555029227129082</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.07017417261445943</v>
+      </c>
+      <c r="E74">
+        <v>-0.01354760048935629</v>
+      </c>
+      <c r="F74">
+        <v>0.001328365886198686</v>
+      </c>
+      <c r="G74">
+        <v>0.01713369332490335</v>
+      </c>
+      <c r="H74">
+        <v>0.1324453753411119</v>
+      </c>
+      <c r="I74">
+        <v>0.01617702591278696</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.110484058836041</v>
+        <v>-0.1048927594424527</v>
       </c>
       <c r="C75">
-        <v>-0.04972981097900168</v>
+        <v>-0.01803763265187955</v>
       </c>
       <c r="D75">
-        <v>0.008933646693671773</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03030404840422886</v>
+      </c>
+      <c r="E75">
+        <v>0.0006457537625844038</v>
+      </c>
+      <c r="F75">
+        <v>-0.003447271874866163</v>
+      </c>
+      <c r="G75">
+        <v>-0.001866551502950372</v>
+      </c>
+      <c r="H75">
+        <v>0.108800345639862</v>
+      </c>
+      <c r="I75">
+        <v>0.05359824841548942</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.1281268071750474</v>
+        <v>-0.1355165357031393</v>
       </c>
       <c r="C76">
-        <v>-0.07658791200388862</v>
+        <v>-0.02405174768575814</v>
       </c>
       <c r="D76">
-        <v>0.02758396384478235</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.07611196935360538</v>
+      </c>
+      <c r="E76">
+        <v>-0.003614788572304922</v>
+      </c>
+      <c r="F76">
+        <v>0.03780738142568723</v>
+      </c>
+      <c r="G76">
+        <v>-0.04317549127813539</v>
+      </c>
+      <c r="H76">
+        <v>0.2432623295912765</v>
+      </c>
+      <c r="I76">
+        <v>0.1060063437137268</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.1318335040349673</v>
+        <v>-0.1027741945031426</v>
       </c>
       <c r="C77">
-        <v>0.01336592929963893</v>
+        <v>-0.06097725725618754</v>
       </c>
       <c r="D77">
-        <v>0.07002441201420498</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.02940172497456364</v>
+      </c>
+      <c r="E77">
+        <v>0.06635239597031264</v>
+      </c>
+      <c r="F77">
+        <v>0.06285581059428146</v>
+      </c>
+      <c r="G77">
+        <v>-0.7543697514704527</v>
+      </c>
+      <c r="H77">
+        <v>-0.3719202139623817</v>
+      </c>
+      <c r="I77">
+        <v>0.2673388357138178</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.107081030226243</v>
+        <v>-0.1495254968758381</v>
       </c>
       <c r="C78">
-        <v>-0.03359797100884625</v>
+        <v>-0.04759712474494296</v>
       </c>
       <c r="D78">
-        <v>0.07669564031483062</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.06993799225649522</v>
+      </c>
+      <c r="E78">
+        <v>0.05047161842371414</v>
+      </c>
+      <c r="F78">
+        <v>0.05821639115575502</v>
+      </c>
+      <c r="G78">
+        <v>-0.02001382525305634</v>
+      </c>
+      <c r="H78">
+        <v>-0.1014914966866085</v>
+      </c>
+      <c r="I78">
+        <v>-0.09086270532210976</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>-0.1382058574207217</v>
+        <v>-0.1426560609016886</v>
       </c>
       <c r="C79">
-        <v>-0.05709502276186066</v>
+        <v>-0.02716099856589347</v>
       </c>
       <c r="D79">
-        <v>0.03423668961701536</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.04956944045247268</v>
+      </c>
+      <c r="E79">
+        <v>-0.01515325835788011</v>
+      </c>
+      <c r="F79">
+        <v>0.02188270571133736</v>
+      </c>
+      <c r="G79">
+        <v>-0.03808158013415095</v>
+      </c>
+      <c r="H79">
+        <v>0.1717089251019782</v>
+      </c>
+      <c r="I79">
+        <v>0.0788007020336277</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.03328037948416723</v>
+        <v>-0.03813220131289893</v>
       </c>
       <c r="C80">
-        <v>-0.01720015542051085</v>
+        <v>-0.003861243836674337</v>
       </c>
       <c r="D80">
-        <v>0.0243084701297328</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01638683495154461</v>
+      </c>
+      <c r="E80">
+        <v>-0.04555651780628445</v>
+      </c>
+      <c r="F80">
+        <v>-0.0005760952861641832</v>
+      </c>
+      <c r="G80">
+        <v>0.01904206513280175</v>
+      </c>
+      <c r="H80">
+        <v>0.02968972779375231</v>
+      </c>
+      <c r="I80">
+        <v>-0.109261899545373</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.1313296708295732</v>
+        <v>-0.1300833812153325</v>
       </c>
       <c r="C81">
-        <v>-0.06859872898202393</v>
+        <v>-0.01035368682345085</v>
       </c>
       <c r="D81">
-        <v>0.0183384281852411</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.05013649407191798</v>
+      </c>
+      <c r="E81">
+        <v>-0.01031075535770473</v>
+      </c>
+      <c r="F81">
+        <v>0.02085983804102004</v>
+      </c>
+      <c r="G81">
+        <v>-0.0119461147920017</v>
+      </c>
+      <c r="H81">
+        <v>0.1631097847186652</v>
+      </c>
+      <c r="I81">
+        <v>0.02379617091829883</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>-0.1313245061783381</v>
+        <v>-0.1298999183944873</v>
       </c>
       <c r="C82">
-        <v>-0.06241016317900348</v>
+        <v>-0.008740720838764563</v>
       </c>
       <c r="D82">
-        <v>0.005338443182144645</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.04836945648819145</v>
+      </c>
+      <c r="E82">
+        <v>-0.02195270225344649</v>
+      </c>
+      <c r="F82">
+        <v>0.03317632079298885</v>
+      </c>
+      <c r="G82">
+        <v>-0.007604949667763</v>
+      </c>
+      <c r="H82">
+        <v>0.231484027949525</v>
+      </c>
+      <c r="I82">
+        <v>0.1135052390156534</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.06409700532634247</v>
+        <v>-0.0785191175600481</v>
       </c>
       <c r="C83">
-        <v>0.044305055445773</v>
+        <v>-0.04201472412697388</v>
       </c>
       <c r="D83">
-        <v>0.01614059053536041</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03619477704001112</v>
+      </c>
+      <c r="E83">
+        <v>0.02436519616794411</v>
+      </c>
+      <c r="F83">
+        <v>0.03791106364883885</v>
+      </c>
+      <c r="G83">
+        <v>0.07318703876390838</v>
+      </c>
+      <c r="H83">
+        <v>0.001410015234822544</v>
+      </c>
+      <c r="I83">
+        <v>-0.1172862746974521</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>-0.03272484827877054</v>
+        <v>-0.03311508223997169</v>
       </c>
       <c r="C84">
-        <v>-0.03433134867536036</v>
+        <v>-0.02612627491573669</v>
       </c>
       <c r="D84">
-        <v>0.03079183325428019</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.03759570391762833</v>
+      </c>
+      <c r="E84">
+        <v>0.02379767464927176</v>
+      </c>
+      <c r="F84">
+        <v>-0.04435244018287084</v>
+      </c>
+      <c r="G84">
+        <v>0.03227084585666513</v>
+      </c>
+      <c r="H84">
+        <v>0.04195879698844444</v>
+      </c>
+      <c r="I84">
+        <v>-0.09897721795307372</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.1145628814446482</v>
+        <v>-0.1197268811869632</v>
       </c>
       <c r="C85">
-        <v>-0.03679627187162843</v>
+        <v>-0.02832856268396372</v>
       </c>
       <c r="D85">
-        <v>0.04292531313114415</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.03556526957508024</v>
+      </c>
+      <c r="E85">
+        <v>0.002793782304666356</v>
+      </c>
+      <c r="F85">
+        <v>0.04816270908152007</v>
+      </c>
+      <c r="G85">
+        <v>-0.01604732659341726</v>
+      </c>
+      <c r="H85">
+        <v>0.1541053431489747</v>
+      </c>
+      <c r="I85">
+        <v>0.071832839320398</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.0535751300288086</v>
+        <v>-0.05070349442496416</v>
       </c>
       <c r="C86">
-        <v>-0.02953223645161424</v>
+        <v>-0.03279364804060416</v>
       </c>
       <c r="D86">
-        <v>0.06702052776884773</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.03149664051378188</v>
+      </c>
+      <c r="E86">
+        <v>0.032494846919067</v>
+      </c>
+      <c r="F86">
+        <v>0.01696654556846927</v>
+      </c>
+      <c r="G86">
+        <v>0.02574547999175798</v>
+      </c>
+      <c r="H86">
+        <v>-0.04850288392495348</v>
+      </c>
+      <c r="I86">
+        <v>0.00480804155849352</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.1216683153140699</v>
+        <v>-0.1254622076783991</v>
       </c>
       <c r="C87">
-        <v>-0.07042916381397547</v>
+        <v>-0.04849002353468235</v>
       </c>
       <c r="D87">
-        <v>0.07629351882762521</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.06862759167148744</v>
+      </c>
+      <c r="E87">
+        <v>0.02781706873605868</v>
+      </c>
+      <c r="F87">
+        <v>0.02307253525522707</v>
+      </c>
+      <c r="G87">
+        <v>-0.1564358459622613</v>
+      </c>
+      <c r="H87">
+        <v>-0.09461047381251562</v>
+      </c>
+      <c r="I87">
+        <v>-0.01688746511839883</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.05764925209709499</v>
+        <v>-0.06428474564392553</v>
       </c>
       <c r="C88">
-        <v>-0.03394184797176235</v>
+        <v>-0.02577901337735623</v>
       </c>
       <c r="D88">
-        <v>0.02708457345758815</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.04127593332807107</v>
+      </c>
+      <c r="E88">
+        <v>-0.0006006463925189054</v>
+      </c>
+      <c r="F88">
+        <v>0.02282026237131883</v>
+      </c>
+      <c r="G88">
+        <v>-0.0101735787823524</v>
+      </c>
+      <c r="H88">
+        <v>0.03752458557696372</v>
+      </c>
+      <c r="I88">
+        <v>-0.02600553710439076</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.07645415396234874</v>
+        <v>-0.1145656237332716</v>
       </c>
       <c r="C89">
-        <v>-0.06585048354819861</v>
+        <v>0.3612774256024112</v>
       </c>
       <c r="D89">
-        <v>-0.3166007550695303</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.07811460501833009</v>
+      </c>
+      <c r="E89">
+        <v>0.04336272704189797</v>
+      </c>
+      <c r="F89">
+        <v>0.08550724512443014</v>
+      </c>
+      <c r="G89">
+        <v>0.01264047354156601</v>
+      </c>
+      <c r="H89">
+        <v>0.02542791032811707</v>
+      </c>
+      <c r="I89">
+        <v>-0.07839643438140548</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.06794393199099735</v>
+        <v>-0.08970359070928967</v>
       </c>
       <c r="C90">
-        <v>-0.03369190213433695</v>
+        <v>0.2814721760495976</v>
       </c>
       <c r="D90">
-        <v>-0.2789038016359784</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.08670998077502561</v>
+      </c>
+      <c r="E90">
+        <v>0.04713312174124494</v>
+      </c>
+      <c r="F90">
+        <v>0.03362555848761693</v>
+      </c>
+      <c r="G90">
+        <v>-0.02296313843131456</v>
+      </c>
+      <c r="H90">
+        <v>-0.01608374670358265</v>
+      </c>
+      <c r="I90">
+        <v>-0.07162296969505939</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.09558385557443064</v>
+        <v>-0.0924945984777148</v>
       </c>
       <c r="C91">
-        <v>-0.05349935263718969</v>
+        <v>-0.01635927226078241</v>
       </c>
       <c r="D91">
-        <v>0.01239578159390236</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.03916973285923366</v>
+      </c>
+      <c r="E91">
+        <v>0.0001966873175469257</v>
+      </c>
+      <c r="F91">
+        <v>0.001512645233507695</v>
+      </c>
+      <c r="G91">
+        <v>0.01087342478118922</v>
+      </c>
+      <c r="H91">
+        <v>0.08308819761983899</v>
+      </c>
+      <c r="I91">
+        <v>0.04391700169389356</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.06443541511257703</v>
+        <v>-0.08835364884047442</v>
       </c>
       <c r="C92">
-        <v>-0.04876607042741596</v>
+        <v>0.3249363648004118</v>
       </c>
       <c r="D92">
-        <v>-0.3229723056944668</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.08779719500015168</v>
+      </c>
+      <c r="E92">
+        <v>0.04828746085220952</v>
+      </c>
+      <c r="F92">
+        <v>0.0470959252808747</v>
+      </c>
+      <c r="G92">
+        <v>-0.008539983250989973</v>
+      </c>
+      <c r="H92">
+        <v>0.03252999424239713</v>
+      </c>
+      <c r="I92">
+        <v>-0.02980577232870242</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.06066079679199492</v>
+        <v>-0.08633871310705039</v>
       </c>
       <c r="C93">
-        <v>-0.04137895372718296</v>
+        <v>0.3056486237562538</v>
       </c>
       <c r="D93">
-        <v>-0.3093526949619609</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.08343873994036344</v>
+      </c>
+      <c r="E93">
+        <v>0.01262014334155863</v>
+      </c>
+      <c r="F93">
+        <v>0.02785888956784598</v>
+      </c>
+      <c r="G93">
+        <v>-0.00995892843764601</v>
+      </c>
+      <c r="H93">
+        <v>0.002671796615322073</v>
+      </c>
+      <c r="I93">
+        <v>-0.009636829870119082</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.1324171475639984</v>
+        <v>-0.1268021577985504</v>
       </c>
       <c r="C94">
-        <v>-0.02454892955526059</v>
+        <v>-0.04204391558297062</v>
       </c>
       <c r="D94">
-        <v>0.04586124348415511</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.01758487178190505</v>
+      </c>
+      <c r="E94">
+        <v>-0.02262742350939168</v>
+      </c>
+      <c r="F94">
+        <v>0.01530518454807476</v>
+      </c>
+      <c r="G94">
+        <v>0.03973806434612361</v>
+      </c>
+      <c r="H94">
+        <v>0.1143314659831836</v>
+      </c>
+      <c r="I94">
+        <v>0.03767718030616564</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.120164288286559</v>
+        <v>-0.130634064350688</v>
       </c>
       <c r="C95">
-        <v>-0.02411783476153131</v>
+        <v>-0.06060609158249866</v>
       </c>
       <c r="D95">
-        <v>0.07631858982563076</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.03635087340908126</v>
+      </c>
+      <c r="E95">
+        <v>0.007292408050595979</v>
+      </c>
+      <c r="F95">
+        <v>0.04343937245610659</v>
+      </c>
+      <c r="G95">
+        <v>-0.03525112522603196</v>
+      </c>
+      <c r="H95">
+        <v>-0.1190387115498135</v>
+      </c>
+      <c r="I95">
+        <v>-0.07982544927092679</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3475,112 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>-0.2304594992293198</v>
+        <v>-0.1903593122635641</v>
       </c>
       <c r="C97">
-        <v>-0.05952296840921278</v>
+        <v>0.04506818882323565</v>
       </c>
       <c r="D97">
-        <v>-0.1142420378482044</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.04353348795996106</v>
+      </c>
+      <c r="E97">
+        <v>0.03940383966019237</v>
+      </c>
+      <c r="F97">
+        <v>-0.9363283514402926</v>
+      </c>
+      <c r="G97">
+        <v>-0.05797747326604873</v>
+      </c>
+      <c r="H97">
+        <v>-0.01117453734154124</v>
+      </c>
+      <c r="I97">
+        <v>-0.07454586069820184</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.2571117053448894</v>
+        <v>-0.2847924093854823</v>
       </c>
       <c r="C98">
-        <v>-0.07801507556963097</v>
+        <v>-0.03180742469540713</v>
       </c>
       <c r="D98">
-        <v>0.02486985541785235</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.05596203932630133</v>
+      </c>
+      <c r="E98">
+        <v>-0.2009741386239173</v>
+      </c>
+      <c r="F98">
+        <v>-0.008834294136535161</v>
+      </c>
+      <c r="G98">
+        <v>0.3300977970160722</v>
+      </c>
+      <c r="H98">
+        <v>-0.204718029188783</v>
+      </c>
+      <c r="I98">
+        <v>0.2492327262202089</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B99">
-        <v>-0.3858366073019993</v>
+        <v>-0.2499282611367792</v>
       </c>
       <c r="C99">
-        <v>0.8988441587133317</v>
+        <v>-0.3317355351876035</v>
       </c>
       <c r="D99">
-        <v>-0.0309472269033897</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.8789836704238296</v>
+      </c>
+      <c r="E99">
+        <v>0.09468772009742193</v>
+      </c>
+      <c r="F99">
+        <v>0.07738164106331849</v>
+      </c>
+      <c r="G99">
+        <v>0.02806517497505755</v>
+      </c>
+      <c r="H99">
+        <v>0.08998853195028714</v>
+      </c>
+      <c r="I99">
+        <v>0.04035782657249943</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3591,54 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.04537312339421358</v>
+        <v>-0.05080970901418221</v>
       </c>
       <c r="C101">
-        <v>-0.0482259499977892</v>
+        <v>0.004920667994293458</v>
       </c>
       <c r="D101">
-        <v>0.00458159661852388</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.04381781305579401</v>
+      </c>
+      <c r="E101">
+        <v>0.04254480147663158</v>
+      </c>
+      <c r="F101">
+        <v>0.02923052182848258</v>
+      </c>
+      <c r="G101">
+        <v>-0.02120832024598966</v>
+      </c>
+      <c r="H101">
+        <v>0.08640345014264293</v>
+      </c>
+      <c r="I101">
+        <v>-0.04748893785313552</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3649,25 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3678,25 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3705,21 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
